--- a/BIO247Project/BIO247ProjectSubmissions/graphs.xlsx
+++ b/BIO247Project/BIO247ProjectSubmissions/graphs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectSubmissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{6E7A3E0E-40E0-4F0B-B0B8-42CFEF61AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0679375C-98CC-4FA6-89A0-7FD41CA2FD47}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{6E7A3E0E-40E0-4F0B-B0B8-42CFEF61AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2610837-ED82-4C97-832B-42A2A34EC9DB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{634B2139-1284-40E4-820A-68D3B13B798C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="862">
   <si>
     <t>Var1</t>
   </si>
@@ -2613,6 +2613,15 @@
   </si>
   <si>
     <t>relfreq</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Minimal</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -5706,6 +5715,625 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22389568138598184"/>
+          <c:y val="5.5555555555555552E-2"/>
+          <c:w val="0.77426306819162816"/>
+          <c:h val="0.73053222513852423"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>None</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9025-4DE0-A406-F5D0375E3B85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9025-4DE0-A406-F5D0375E3B85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Good</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9025-4DE0-A406-F5D0375E3B85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="218"/>
+        <c:overlap val="-100"/>
+        <c:axId val="648102136"/>
+        <c:axId val="648098936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="648102136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Response to Dopamine Antagonists</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32349190726159233"/>
+              <c:y val="0.90182852143482062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648098936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="648098936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Percent of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> Schizophrenia Patients</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648102136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5867,6 +6495,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8447,6 +9115,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8627,6 +9798,246 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>197922</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>214003</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85106</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5C44EE-E16F-0E9E-C31F-BFA69CBF33A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>457695</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC21E9B2-92F4-C771-40A8-9484C172F166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15091559" y="10081655"/>
+          <a:ext cx="519545" cy="321623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>None</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>61851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97555E32-68E4-4D78-A379-FD136383D39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15920357" y="10081656"/>
+          <a:ext cx="964870" cy="321623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Minimal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>160812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>65810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>210292</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE15D82-FEF9-4276-83B6-F05D880FC5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17132630" y="10085615"/>
+          <a:ext cx="655617" cy="321623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Good</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8935,8 +10346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512E2B4B-946E-4352-8815-AB02D008CA54}">
   <dimension ref="A1:AG852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S42" zoomScale="171" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="AE50" sqref="AE50"/>
+    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="77" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9968,6 +11379,13 @@
       <c r="L53">
         <v>5.41</v>
       </c>
+      <c r="Q53" t="s">
+        <v>859</v>
+      </c>
+      <c r="R53">
+        <f>1-R54-R52</f>
+        <v>0.49</v>
+      </c>
       <c r="AG53">
         <v>0.10365853658536579</v>
       </c>
@@ -9997,6 +11415,12 @@
       <c r="L54">
         <v>5.62</v>
       </c>
+      <c r="Q54" t="s">
+        <v>860</v>
+      </c>
+      <c r="R54">
+        <v>0.51</v>
+      </c>
       <c r="AG54">
         <v>0.10365853658536579</v>
       </c>
@@ -10016,6 +11440,12 @@
       </c>
       <c r="L55">
         <v>5.83</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>861</v>
+      </c>
+      <c r="R55">
+        <v>0.23</v>
       </c>
       <c r="AG55">
         <v>9.1463414634146339E-2</v>

--- a/BIO247Project/BIO247ProjectSubmissions/graphs.xlsx
+++ b/BIO247Project/BIO247ProjectSubmissions/graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectSubmissions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{6E7A3E0E-40E0-4F0B-B0B8-42CFEF61AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2610837-ED82-4C97-832B-42A2A34EC9DB}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{6E7A3E0E-40E0-4F0B-B0B8-42CFEF61AAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2159CB-57FD-4672-90C8-468556FC7F3A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{634B2139-1284-40E4-820A-68D3B13B798C}"/>
+    <workbookView xWindow="8400" yWindow="4320" windowWidth="10125" windowHeight="3300" xr2:uid="{634B2139-1284-40E4-820A-68D3B13B798C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5937,7 +5937,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10346,8 +10346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512E2B4B-946E-4352-8815-AB02D008CA54}">
   <dimension ref="A1:AG852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" zoomScale="77" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="AL45" sqref="AL45"/>
+    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="77" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11383,7 +11383,7 @@
         <v>859</v>
       </c>
       <c r="R53">
-        <f>1-R54-R52</f>
+        <f>1-R54-R55</f>
         <v>0.49</v>
       </c>
       <c r="AG53">
@@ -11419,7 +11419,8 @@
         <v>860</v>
       </c>
       <c r="R54">
-        <v>0.51</v>
+        <f>0.51-0.23</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AG54">
         <v>0.10365853658536579</v>
@@ -11466,6 +11467,10 @@
       </c>
       <c r="L56">
         <v>6.04</v>
+      </c>
+      <c r="R56">
+        <f>SUM(R53:R55)</f>
+        <v>1</v>
       </c>
       <c r="AG56">
         <v>9.1463414634146339E-2</v>
